--- a/biology/Médecine/Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins/Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins.xlsx
+++ b/biology/Médecine/Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins/Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonds_d%27Intervention_pour_la_Qualit%C3%A9_et_la_Coordination_des_Soins</t>
+          <t>Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fonds d’Intervention pour la Qualité et la Coordination des Soins (FIQCS) a pour objet l'amélioration de l'efficacité de la politique de coordination des soins et le décloisonnement du système de santé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fonds d’Intervention pour la Qualité et la Coordination des Soins (FIQCS) a pour objet l'amélioration de l'efficacité de la politique de coordination des soins et le décloisonnement du système de santé.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonds_d%27Intervention_pour_la_Qualit%C3%A9_et_la_Coordination_des_Soins</t>
+          <t>Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été créé par la loi de financement de la sécurité sociale de 2007 et modifié par l’ordonnance n°2010-177 du 23 février 2010. Il figure à l’article L221-1-1[2] du code de la sécurité sociale. Ses conditions d’application sont fixées par le décret n° 2010-1027 du 30 août 2010[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été créé par la loi de financement de la sécurité sociale de 2007 et modifié par l’ordonnance n°2010-177 du 23 février 2010. Il figure à l’article L221-1-1 du code de la sécurité sociale. Ses conditions d’application sont fixées par le décret n° 2010-1027 du 30 août 2010.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonds_d%27Intervention_pour_la_Qualit%C3%A9_et_la_Coordination_des_Soins</t>
+          <t>Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Compétences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Expérimentation des soins de ville
 Réseaux de santé
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fonds_d%27Intervention_pour_la_Qualit%C3%A9_et_la_Coordination_des_Soins</t>
+          <t>Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Orientations 2011</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Améliorer l’accessibilité aux soins et favoriser une meilleure répartition géographique des professionnels de santé
 Contribuer à l’amélioration de la qualité et de la coordination des soins de premier recours</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fonds_d%27Intervention_pour_la_Qualit%C3%A9_et_la_Coordination_des_Soins</t>
+          <t>Fonds_d'Intervention_pour_la_Qualité_et_la_Coordination_des_Soins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Présentation », Assurance maladie en France
